--- a/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面設計書.xlsx
+++ b/YSteam開発資料まとめ/レビュー/レビュー指摘事項_画面設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51976139-5BFB-4F9F-A900-CBD38B7C80A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D4824-6A66-4E35-A46D-0B5F3D9B2710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="18">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="1">
@@ -177,35 +177,6 @@
   </si>
   <si>
     <t>□</t>
-  </si>
-  <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>ホカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明欄に説明書きが何もない。成果物として出すので記載はしっかりと。</t>
-    <rPh sb="0" eb="3">
-      <t>セツメイラン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>セツメイガ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>セイカブツ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2021/11/08/14:52:56</t>
@@ -732,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -882,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="108" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,12 +962,8 @@
       <c r="B18" s="7">
         <v>10</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="8" t="s">
         <v>16</v>
